--- a/Data/Albatross_LWR_data/loga_b_genus_comparison.xlsx
+++ b/Data/Albatross_LWR_data/loga_b_genus_comparison.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\Albatross_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D92AE7-380D-4B6E-BDCC-96E66A9B5F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C675AB-8ED8-4BD8-8862-4330C4832314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28650" yWindow="1590" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="S_delicatulus" sheetId="1" r:id="rId1"/>
-    <sheet name="G_oyena" sheetId="2" r:id="rId2"/>
+    <sheet name="Spratelloides" sheetId="1" r:id="rId1"/>
+    <sheet name="Gerres" sheetId="2" r:id="rId2"/>
+    <sheet name="Ambassis" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>a</t>
   </si>
@@ -82,6 +84,24 @@
   </si>
   <si>
     <t>subfaciatus</t>
+  </si>
+  <si>
+    <t>urotaenia</t>
+  </si>
+  <si>
+    <t>gymnocephalus</t>
+  </si>
+  <si>
+    <t>interrupta</t>
+  </si>
+  <si>
+    <t>natalensis</t>
+  </si>
+  <si>
+    <t>Albatross_gracilis</t>
+  </si>
+  <si>
+    <t>Albatross_delicatulus</t>
   </si>
 </sst>
 </file>
@@ -399,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +443,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>7.9120000000000006E-3</v>
@@ -438,17 +458,17 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>9.4999999999999998E-3</v>
+        <v>5.9858000000000003E-3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">LOG10(B3)</f>
-        <v>-2.0222763947111524</v>
+        <f t="shared" ref="C3" si="0">LOG10(B3)</f>
+        <v>-2.2228777980784278</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>3.1470501999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -456,104 +476,104 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6.3E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-2.2006594505464183</v>
+        <f t="shared" ref="C4:C12" si="1">LOG10(B4)</f>
+        <v>-2.0222763947111524</v>
       </c>
       <c r="D4">
-        <v>3.02</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5.5999999999999999E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-2.2518119729937998</v>
+        <f t="shared" si="1"/>
+        <v>-2.2006594505464183</v>
       </c>
       <c r="D5">
-        <v>3.117</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4.5500000000000002E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-2.3419886033428874</v>
+        <f t="shared" si="1"/>
+        <v>-2.2518119729937998</v>
       </c>
       <c r="D6">
-        <v>3.13</v>
+        <v>3.117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>4.6800000000000001E-3</v>
+        <v>4.5500000000000002E-3</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-2.3297541469258758</v>
+        <f t="shared" si="1"/>
+        <v>-2.3419886033428874</v>
       </c>
       <c r="D7">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2.2699999999999999E-3</v>
+        <v>4.6800000000000001E-3</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-2.6439741428068775</v>
+        <f t="shared" si="1"/>
+        <v>-2.3297541469258758</v>
       </c>
       <c r="D8">
-        <v>3.2280000000000002</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>3.63E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-2.4400933749638876</v>
+        <f t="shared" si="1"/>
+        <v>-2.6439741428068775</v>
       </c>
       <c r="D9">
-        <v>3.25</v>
+        <v>3.2280000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>2.14E-3</v>
+        <v>3.63E-3</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-2.669586226650809</v>
+        <f t="shared" si="1"/>
+        <v>-2.4400933749638876</v>
       </c>
       <c r="D10">
-        <v>3.2869999999999999</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,13 +581,28 @@
         <v>5</v>
       </c>
       <c r="B11">
+        <v>2.14E-3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-2.669586226650809</v>
+      </c>
+      <c r="D11">
+        <v>3.2869999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
         <v>3.7699999999999999E-3</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
+      <c r="C12">
+        <f t="shared" si="1"/>
         <v>-2.423658649794207</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>3.4039999999999999</v>
       </c>
     </row>
@@ -580,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DFF2F3-86FF-415B-A812-EA29B0766469}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +673,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C41" si="0">LOG10(B4)</f>
+        <f t="shared" ref="C4:C30" si="0">LOG10(B4)</f>
         <v>-1.5497508916806388</v>
       </c>
       <c r="D4">
@@ -1043,7 +1078,7 @@
         <v>1.84E-2</v>
       </c>
       <c r="C31">
-        <f>LOG10(B31)</f>
+        <f t="shared" ref="C31:C43" si="1">LOG10(B31)</f>
         <v>-1.7351821769904636</v>
       </c>
       <c r="D31">
@@ -1058,7 +1093,7 @@
         <v>1.47E-2</v>
       </c>
       <c r="C32">
-        <f>LOG10(B32)</f>
+        <f t="shared" si="1"/>
         <v>-1.832682665251824</v>
       </c>
       <c r="D32">
@@ -1073,7 +1108,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="C33">
-        <f>LOG10(B33)</f>
+        <f t="shared" si="1"/>
         <v>-1.6777807052660807</v>
       </c>
       <c r="D33">
@@ -1088,7 +1123,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="C34">
-        <f>LOG10(B34)</f>
+        <f t="shared" si="1"/>
         <v>-2.1307682802690238</v>
       </c>
       <c r="D34">
@@ -1103,7 +1138,7 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="C35">
-        <f>LOG10(B35)</f>
+        <f t="shared" si="1"/>
         <v>-2.642065152999546</v>
       </c>
       <c r="D35">
@@ -1118,7 +1153,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
       <c r="C36">
-        <f>LOG10(B36)</f>
+        <f t="shared" si="1"/>
         <v>-1.6126101736612706</v>
       </c>
       <c r="D36">
@@ -1133,7 +1168,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="C37">
-        <f>LOG10(B37)</f>
+        <f t="shared" si="1"/>
         <v>-1.7399286120149251</v>
       </c>
       <c r="D37">
@@ -1148,7 +1183,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C38">
-        <f>LOG10(B38)</f>
+        <f t="shared" si="1"/>
         <v>-2.0969100130080562</v>
       </c>
       <c r="D38">
@@ -1163,7 +1198,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="C39">
-        <f>LOG10(B39)</f>
+        <f t="shared" si="1"/>
         <v>-1.9208187539523751</v>
       </c>
       <c r="D39">
@@ -1178,7 +1213,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C40">
-        <f>LOG10(B40)</f>
+        <f t="shared" si="1"/>
         <v>-2.1549019599857431</v>
       </c>
       <c r="D40">
@@ -1193,7 +1228,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C41">
-        <f>LOG10(B41)</f>
+        <f t="shared" si="1"/>
         <v>-2.1549019599857431</v>
       </c>
       <c r="D41">
@@ -1208,7 +1243,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C42">
-        <f>LOG10(B42)</f>
+        <f t="shared" si="1"/>
         <v>-2.2218487496163561</v>
       </c>
       <c r="D42">
@@ -1223,7 +1258,7 @@
         <v>9.4500000000000001E-3</v>
       </c>
       <c r="C43">
-        <f>LOG10(B43)</f>
+        <f t="shared" si="1"/>
         <v>-2.024568191490737</v>
       </c>
       <c r="D43">
@@ -1233,4 +1268,195 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BB2EB3-E432-4EA8-9EE7-9D1A438734BD}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3.1066E-2</v>
+      </c>
+      <c r="C2">
+        <f>LOG10(B2)</f>
+        <v>-1.5077146620897537</v>
+      </c>
+      <c r="D2">
+        <v>2.9220799999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <f>LOG10(B3)</f>
+        <v>-1.6695862266508092</v>
+      </c>
+      <c r="D3">
+        <v>2.653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="0">LOG10(B4)</f>
+        <v>-1.8239087409443189</v>
+      </c>
+      <c r="D4">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-1.4841261562883208</v>
+      </c>
+      <c r="D5">
+        <v>2.7930000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-1.5833594926617189</v>
+      </c>
+      <c r="D6">
+        <v>2.964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-1.8827287043442358</v>
+      </c>
+      <c r="D7">
+        <v>2.984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1.54E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-1.8124792791635369</v>
+      </c>
+      <c r="D8">
+        <v>2.9870000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-1.9586073148417751</v>
+      </c>
+      <c r="D9">
+        <v>3.0070000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-1.7619538968712045</v>
+      </c>
+      <c r="D10">
+        <v>3.0830000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-1.853871964321762</v>
+      </c>
+      <c r="D11">
+        <v>3.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBF4ACB-F12D-4C36-8ADB-06509B79B11E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>